--- a/ValueSet-covid19-complications.xlsx
+++ b/ValueSet-covid19-complications.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-covid19-complications.xlsx
+++ b/ValueSet-covid19-complications.xlsx
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19ComplicationsSCT</t>
+    <t>COVID19ComplicationsSCT</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 complications</t>
+    <t>COVID-19 complications</t>
   </si>
   <si>
     <t>Status</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Complications due to COVID19</t>
+    <t>Complications due to COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
